--- a/biology/Botanique/Ebenaceae/Ebenaceae.xlsx
+++ b/biology/Botanique/Ebenaceae/Ebenaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ebenaceae (Ébénacées) sont une famille de plantes dicotylédones qui comprend 500 espèces réparties en deux à six genres.
 Ce sont des arbres ou des arbustes principalement des régions tropicales mais qui comptent quelques espèces dans les zones tempérées. Ils constituent une importante source de bois : le bois d'ébène (Diospyros ebenum) et de fruits.
@@ -513,11 +525,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce nom de famille fait partie de ceux qui, par le jeu des règles de nomenclature botanique, n’ont pas une appellation conforme à leur genre type.
-En effet à l'origine le nom venait du genre Ebenus, forme latinisée du grec ἐβένη / hebenê, « ébénier (plante) ; ébène, bois noir », mot qui serait emprunté à l’égyptien et serait lui-même d’origine nubienne[1].
-Or le genre Ebenus attribué en 1882 par Otto Kuntze sur lequel le nom de famille Ebenaceae fut basé, avait déjà été attribué par Linné en 1753 pour une plante de la famille des  Fabaceae. Le genre Ebenus de Kuntze est devenu finalement un simple synonyme du genre Diospyros du grec διός / dios, Dieu, divin, et  πυρός / pyros, blé, littéralement  « blé divin », en référence au fruit féculent du Diospyros lotus (« plaqueminier » ou « prunier-dattier ») dont le goût rappelle la datte, fruit du dattier[2].
+En effet à l'origine le nom venait du genre Ebenus, forme latinisée du grec ἐβένη / hebenê, « ébénier (plante) ; ébène, bois noir », mot qui serait emprunté à l’égyptien et serait lui-même d’origine nubienne.
+Or le genre Ebenus attribué en 1882 par Otto Kuntze sur lequel le nom de famille Ebenaceae fut basé, avait déjà été attribué par Linné en 1753 pour une plante de la famille des  Fabaceae. Le genre Ebenus de Kuntze est devenu finalement un simple synonyme du genre Diospyros du grec διός / dios, Dieu, divin, et  πυρός / pyros, blé, littéralement  « blé divin », en référence au fruit féculent du Diospyros lotus (« plaqueminier » ou « prunier-dattier ») dont le goût rappelle la datte, fruit du dattier.
 Ainsi, bien que le genre Ebenus au sens de  Kuntze fut successivement appelé Maba puis Diospyros, la famille a gardé le nom Ebenaceae, le genre n'en faisant paradoxalement plus partie. Quant au genre  Ebenus au sens de Linné, il a été conservé et, conformément à son premier auteur (Linné), se réfère à des espèces de la famille des Fabaceae.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place cette famille dans l'ordre des Ericales et y incorpore les Lissocarpaceae.
 </t>
@@ -578,24 +594,26 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015) :
 Diospyros L.
 Euclea L.
 Lissocarpa (en) Bentham
 Royena L. (inclus dans les Diospyros)
-Selon NCBI  (12 nov. 2015)[4] :
+Selon NCBI  (12 nov. 2015) :
 Diospyros
 Euclea
 Lissocarpa
 Maba
 Royena
 Tetraclis (es)
-Selon DELTA Angio           (12 nov. 2015)[5] :
+Selon DELTA Angio           (12 nov. 2015) :
 Diospyros
 Euclea
-Selon ITIS      (12 nov. 2015)[6] :
+Selon ITIS      (12 nov. 2015) :
 genre Diospyros L.</t>
         </is>
       </c>
@@ -624,9 +642,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (28 Jun 2010)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (28 Jun 2010) :
 genre Diospyros
 Diospyros abyssinica
 Diospyros andamanica
